--- a/biology/Botanique/Promenade_Amalia-Rodrigues/Promenade_Amalia-Rodrigues.xlsx
+++ b/biology/Botanique/Promenade_Amalia-Rodrigues/Promenade_Amalia-Rodrigues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La promenade Amalia-Rodrigues est le plus grand square du 19e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est accessible par la rue des Marchais.
 Ce site est desservi par la ligne 7 bis du métro à la station de métro Pré-Saint-Gervais et par la ligne 3b du tramway d'Île-de-France à la station Hôpital-Robert-Debré.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La promenade rend hommage à Amália Rodrigues (1920-1999), chanteuse de fado et actrice portugaise.
 </t>
@@ -576,10 +592,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1971, sous le nom de « square du Boulevard-d'Algérie », en raison de la proximité du boulevard d'Algérie, il s'étend sur 15 047 m2, à proximité du parc de la Butte du Chapeau-Rouge.
-La promenade porte le nom de l'artiste portugaise depuis juin 2010[1].
+La promenade porte le nom de l'artiste portugaise depuis juin 2010.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le parc de la Butte-du-Chapeau-Rouge
 Le jardin Notre-Dame-de-Fatima
